--- a/TestData/Emirates_Flight_Search_Data.xlsx
+++ b/TestData/Emirates_Flight_Search_Data.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28922"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12278BAE-985F-481F-914F-D13F742020A6}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E37D847-11F6-4BA9-BBF6-2777F276DDED}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>Run</t>
   </si>
@@ -57,7 +58,7 @@
     <t>Newyork1</t>
   </si>
   <si>
-    <t>Chennai2</t>
+    <t>England</t>
   </si>
   <si>
     <t>Newyork2</t>
@@ -142,6 +143,9 @@
   </si>
   <si>
     <t>Chennai16</t>
+  </si>
+  <si>
+    <t>map</t>
   </si>
 </sst>
 </file>
@@ -157,12 +161,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,8 +187,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,7 +527,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -541,17 +552,17 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="str">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="str">
         <f>CONCATENATE("Search Flight With Default Passenger -",C2,"-",D2)</f>
         <v>Search Flight With Default Passenger -Newyork-Chennai</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -561,7 +572,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B17" si="0">CONCATENATE("Search Flight With Default Passenger -",C3,"-",D3)</f>
-        <v>Search Flight With Default Passenger -Newyork1-Chennai2</v>
+        <v>Search Flight With Default Passenger -Newyork1-England</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -778,6 +789,91 @@
       </c>
       <c r="D17" t="s">
         <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E23F67-DDAD-4ABC-9CC8-998CABA688EF}">
+  <dimension ref="D4:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4" spans="4:5">
+      <c r="D4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5">
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5">
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5">
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
